--- a/Project/TestScenario/Params.xlsx
+++ b/Project/TestScenario/Params.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1"/>
@@ -81,6 +81,10 @@
   </si>
   <si>
     <t>Checked</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>false</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -457,7 +461,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -556,7 +560,9 @@
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
